--- a/data files/Purchase Order/BELT.xlsx
+++ b/data files/Purchase Order/BELT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BS file manager\BS-order-manager\data files\Purchase Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F2D614-8F11-4FB9-B36D-4B1BEBEFBD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8285312-29F2-48D3-B4B7-8AD09FA1194D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11148" yWindow="2244" windowWidth="17304" windowHeight="8880" xr2:uid="{FE1CA91B-4F6F-4A59-8707-EF443E634220}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FE1CA91B-4F6F-4A59-8707-EF443E634220}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="2" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>To,</t>
   </si>
@@ -151,6 +142,9 @@
   </si>
   <si>
     <t>Excel 97-2003</t>
+  </si>
+  <si>
+    <t>14/12/24</t>
   </si>
 </sst>
 </file>
@@ -395,7 +389,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,17 +416,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,30 +445,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -788,111 +778,117 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="D7" s="10">
+        <v>250</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="D8" s="10">
+        <v>30</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
@@ -900,104 +896,116 @@
         <v>25</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="E9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="D11" s="10">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="D12" s="10">
+        <v>100</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="D13" s="10">
+        <v>120</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="D14" s="10">
+        <v>60</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="D15" s="10">
+        <v>30</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="D17" s="10">
+        <v>20</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1005,58 +1013,64 @@
         <v>8</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="E18" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="D20" s="10">
+        <v>10</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
       <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="D21" s="10">
+        <v>10</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
       <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="D22" s="10">
+        <v>10</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
       <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
@@ -1064,65 +1078,71 @@
         <v>18</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="E23" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
       <c r="B25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="D25" s="10">
+        <v>6</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="D26" s="10">
+        <v>20</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
       <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="D27" s="10">
+        <v>20</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
       <c r="B29" s="9" t="s">
         <v>21</v>
       </c>
@@ -1130,12 +1150,12 @@
         <v>5</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="E29" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
       <c r="B30" s="9" t="s">
         <v>21</v>
       </c>
@@ -1143,12 +1163,12 @@
         <v>6</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="E30" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
       <c r="B31" s="9" t="s">
         <v>21</v>
       </c>
@@ -1156,19 +1176,19 @@
         <v>7</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="E31" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
       <c r="B33" s="9" t="s">
         <v>13</v>
       </c>
@@ -1176,34 +1196,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="E33" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1229,316 +1249,316 @@
       <selection activeCell="G16" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="5"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="7"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="7"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="7"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="7"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="7"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="7"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1556,102 +1576,102 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="1.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="6" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="1.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="2:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+    <row r="7" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36">
+      <c r="C8" s="30"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33">
         <v>18</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
